--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.96336454631376</v>
+        <v>4.141667333333333</v>
       </c>
       <c r="H2">
-        <v>2.96336454631376</v>
+        <v>12.425002</v>
       </c>
       <c r="I2">
-        <v>0.1115019304145601</v>
+        <v>0.1426766640830233</v>
       </c>
       <c r="J2">
-        <v>0.1115019304145601</v>
+        <v>0.1426766640830233</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.287321214247122</v>
+        <v>0.332722</v>
       </c>
       <c r="N2">
-        <v>0.287321214247122</v>
+        <v>0.998166</v>
       </c>
       <c r="O2">
-        <v>0.0352000290741392</v>
+        <v>0.03501655800768293</v>
       </c>
       <c r="P2">
-        <v>0.0352000290741392</v>
+        <v>0.03501655800768293</v>
       </c>
       <c r="Q2">
-        <v>0.8514374997037413</v>
+        <v>1.378023838481333</v>
       </c>
       <c r="R2">
-        <v>0.8514374997037413</v>
+        <v>12.402214546332</v>
       </c>
       <c r="S2">
-        <v>0.00392487119241516</v>
+        <v>0.004996045684205876</v>
       </c>
       <c r="T2">
-        <v>0.00392487119241516</v>
+        <v>0.004996045684205877</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.96336454631376</v>
+        <v>4.141667333333333</v>
       </c>
       <c r="H3">
-        <v>2.96336454631376</v>
+        <v>12.425002</v>
       </c>
       <c r="I3">
-        <v>0.1115019304145601</v>
+        <v>0.1426766640830233</v>
       </c>
       <c r="J3">
-        <v>0.1115019304145601</v>
+        <v>0.1426766640830233</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.546550261479804</v>
+        <v>0.7116543333333333</v>
       </c>
       <c r="N3">
-        <v>0.546550261479804</v>
+        <v>2.134963</v>
       </c>
       <c r="O3">
-        <v>0.06695845673971215</v>
+        <v>0.07489641576026108</v>
       </c>
       <c r="P3">
-        <v>0.06695845673971215</v>
+        <v>0.07489641576026108</v>
       </c>
       <c r="Q3">
-        <v>1.619627667647766</v>
+        <v>2.947435504991778</v>
       </c>
       <c r="R3">
-        <v>1.619627667647766</v>
+        <v>26.526919544926</v>
       </c>
       <c r="S3">
-        <v>0.007465997184057715</v>
+        <v>0.01068597075244922</v>
       </c>
       <c r="T3">
-        <v>0.007465997184057715</v>
+        <v>0.01068597075244922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.96336454631376</v>
+        <v>4.141667333333333</v>
       </c>
       <c r="H4">
-        <v>2.96336454631376</v>
+        <v>12.425002</v>
       </c>
       <c r="I4">
-        <v>0.1115019304145601</v>
+        <v>0.1426766640830233</v>
       </c>
       <c r="J4">
-        <v>0.1115019304145601</v>
+        <v>0.1426766640830233</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.46062939778818</v>
+        <v>1.600566</v>
       </c>
       <c r="N4">
-        <v>1.46062939778818</v>
+        <v>4.801698</v>
       </c>
       <c r="O4">
-        <v>0.1789432687851081</v>
+        <v>0.1684478699458558</v>
       </c>
       <c r="P4">
-        <v>0.1789432687851081</v>
+        <v>0.1684478699458558</v>
       </c>
       <c r="Q4">
-        <v>4.32837737270911</v>
+        <v>6.629011917044</v>
       </c>
       <c r="R4">
-        <v>4.32837737270911</v>
+        <v>59.661107253396</v>
       </c>
       <c r="S4">
-        <v>0.01995251990423104</v>
+        <v>0.02403358015576566</v>
       </c>
       <c r="T4">
-        <v>0.01995251990423104</v>
+        <v>0.02403358015576567</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.96336454631376</v>
+        <v>4.141667333333333</v>
       </c>
       <c r="H5">
-        <v>2.96336454631376</v>
+        <v>12.425002</v>
       </c>
       <c r="I5">
-        <v>0.1115019304145601</v>
+        <v>0.1426766640830233</v>
       </c>
       <c r="J5">
-        <v>0.1115019304145601</v>
+        <v>0.1426766640830233</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.4276450683351</v>
+        <v>4.135145333333333</v>
       </c>
       <c r="N5">
-        <v>3.4276450683351</v>
+        <v>12.405436</v>
       </c>
       <c r="O5">
-        <v>0.419924461120552</v>
+        <v>0.4351938147608695</v>
       </c>
       <c r="P5">
-        <v>0.419924461120552</v>
+        <v>0.4351938147608695</v>
       </c>
       <c r="Q5">
-        <v>10.15736187285144</v>
+        <v>17.12639634565244</v>
       </c>
       <c r="R5">
-        <v>10.15736187285144</v>
+        <v>154.137567110872</v>
       </c>
       <c r="S5">
-        <v>0.04682238804323542</v>
+        <v>0.06209200171964604</v>
       </c>
       <c r="T5">
-        <v>0.04682238804323542</v>
+        <v>0.06209200171964605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.96336454631376</v>
+        <v>4.141667333333333</v>
       </c>
       <c r="H6">
-        <v>2.96336454631376</v>
+        <v>12.425002</v>
       </c>
       <c r="I6">
-        <v>0.1115019304145601</v>
+        <v>0.1426766640830233</v>
       </c>
       <c r="J6">
-        <v>0.1115019304145601</v>
+        <v>0.1426766640830233</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.81571287386579</v>
+        <v>1.984489</v>
       </c>
       <c r="N6">
-        <v>1.81571287386579</v>
+        <v>5.953467</v>
       </c>
       <c r="O6">
-        <v>0.2224449249869647</v>
+        <v>0.20885295887891</v>
       </c>
       <c r="P6">
-        <v>0.2224449249869647</v>
+        <v>0.20885295887891</v>
       </c>
       <c r="Q6">
-        <v>5.38061915669935</v>
+        <v>8.219093264659334</v>
       </c>
       <c r="R6">
-        <v>5.38061915669935</v>
+        <v>73.971839381934</v>
       </c>
       <c r="S6">
-        <v>0.02480303854696857</v>
+        <v>0.02979844345671171</v>
       </c>
       <c r="T6">
-        <v>0.02480303854696857</v>
+        <v>0.02979844345671172</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.96336454631376</v>
+        <v>4.141667333333333</v>
       </c>
       <c r="H7">
-        <v>2.96336454631376</v>
+        <v>12.425002</v>
       </c>
       <c r="I7">
-        <v>0.1115019304145601</v>
+        <v>0.1426766640830233</v>
       </c>
       <c r="J7">
-        <v>0.1115019304145601</v>
+        <v>0.1426766640830233</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.624668937938942</v>
+        <v>0.7372710000000001</v>
       </c>
       <c r="N7">
-        <v>0.624668937938942</v>
+        <v>2.211813</v>
       </c>
       <c r="O7">
-        <v>0.07652885929352383</v>
+        <v>0.07759238264642075</v>
       </c>
       <c r="P7">
-        <v>0.07652885929352383</v>
+        <v>0.07759238264642074</v>
       </c>
       <c r="Q7">
-        <v>1.851121783871731</v>
+        <v>3.053531216514001</v>
       </c>
       <c r="R7">
-        <v>1.851121783871731</v>
+        <v>27.48178094862601</v>
       </c>
       <c r="S7">
-        <v>0.008533115543652154</v>
+        <v>0.01107062231424478</v>
       </c>
       <c r="T7">
-        <v>0.008533115543652154</v>
+        <v>0.01107062231424478</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.97776589403837</v>
+        <v>6.048190666666667</v>
       </c>
       <c r="H8">
-        <v>5.97776589403837</v>
+        <v>18.144572</v>
       </c>
       <c r="I8">
-        <v>0.2249242124397828</v>
+        <v>0.2083546549267541</v>
       </c>
       <c r="J8">
-        <v>0.2249242124397828</v>
+        <v>0.2083546549267542</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.287321214247122</v>
+        <v>0.332722</v>
       </c>
       <c r="N8">
-        <v>0.287321214247122</v>
+        <v>0.998166</v>
       </c>
       <c r="O8">
-        <v>0.0352000290741392</v>
+        <v>0.03501655800768293</v>
       </c>
       <c r="P8">
-        <v>0.0352000290741392</v>
+        <v>0.03501655800768293</v>
       </c>
       <c r="Q8">
-        <v>1.717538955160137</v>
+        <v>2.012366094994667</v>
       </c>
       <c r="R8">
-        <v>1.717538955160137</v>
+        <v>18.111294854952</v>
       </c>
       <c r="S8">
-        <v>0.007917338817358219</v>
+        <v>0.007295862860413446</v>
       </c>
       <c r="T8">
-        <v>0.007917338817358219</v>
+        <v>0.007295862860413448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.97776589403837</v>
+        <v>6.048190666666667</v>
       </c>
       <c r="H9">
-        <v>5.97776589403837</v>
+        <v>18.144572</v>
       </c>
       <c r="I9">
-        <v>0.2249242124397828</v>
+        <v>0.2083546549267541</v>
       </c>
       <c r="J9">
-        <v>0.2249242124397828</v>
+        <v>0.2083546549267542</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.546550261479804</v>
+        <v>0.7116543333333333</v>
       </c>
       <c r="N9">
-        <v>0.546550261479804</v>
+        <v>2.134963</v>
       </c>
       <c r="O9">
-        <v>0.06695845673971215</v>
+        <v>0.07489641576026108</v>
       </c>
       <c r="P9">
-        <v>0.06695845673971215</v>
+        <v>0.07489641576026108</v>
       </c>
       <c r="Q9">
-        <v>3.267149512451726</v>
+        <v>4.304221096759555</v>
       </c>
       <c r="R9">
-        <v>3.267149512451726</v>
+        <v>38.737989870836</v>
       </c>
       <c r="S9">
-        <v>0.01506057814836302</v>
+        <v>0.01560501686097991</v>
       </c>
       <c r="T9">
-        <v>0.01506057814836302</v>
+        <v>0.01560501686097991</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.97776589403837</v>
+        <v>6.048190666666667</v>
       </c>
       <c r="H10">
-        <v>5.97776589403837</v>
+        <v>18.144572</v>
       </c>
       <c r="I10">
-        <v>0.2249242124397828</v>
+        <v>0.2083546549267541</v>
       </c>
       <c r="J10">
-        <v>0.2249242124397828</v>
+        <v>0.2083546549267542</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.46062939778818</v>
+        <v>1.600566</v>
       </c>
       <c r="N10">
-        <v>1.46062939778818</v>
+        <v>4.801698</v>
       </c>
       <c r="O10">
-        <v>0.1789432687851081</v>
+        <v>0.1684478699458558</v>
       </c>
       <c r="P10">
-        <v>0.1789432687851081</v>
+        <v>0.1684478699458558</v>
       </c>
       <c r="Q10">
-        <v>8.731300597927985</v>
+        <v>9.680528342583999</v>
       </c>
       <c r="R10">
-        <v>8.731300597927985</v>
+        <v>87.12475508325601</v>
       </c>
       <c r="S10">
-        <v>0.0402486738028908</v>
+        <v>0.03509689781571555</v>
       </c>
       <c r="T10">
-        <v>0.0402486738028908</v>
+        <v>0.03509689781571556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.97776589403837</v>
+        <v>6.048190666666667</v>
       </c>
       <c r="H11">
-        <v>5.97776589403837</v>
+        <v>18.144572</v>
       </c>
       <c r="I11">
-        <v>0.2249242124397828</v>
+        <v>0.2083546549267541</v>
       </c>
       <c r="J11">
-        <v>0.2249242124397828</v>
+        <v>0.2083546549267542</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.4276450683351</v>
+        <v>4.135145333333333</v>
       </c>
       <c r="N11">
-        <v>3.4276450683351</v>
+        <v>12.405436</v>
       </c>
       <c r="O11">
-        <v>0.419924461120552</v>
+        <v>0.4351938147608695</v>
       </c>
       <c r="P11">
-        <v>0.419924461120552</v>
+        <v>0.4351938147608695</v>
       </c>
       <c r="Q11">
-        <v>20.48965978636238</v>
+        <v>25.01014741037689</v>
       </c>
       <c r="R11">
-        <v>20.48965978636238</v>
+        <v>225.091326693392</v>
       </c>
       <c r="S11">
-        <v>0.09445117870174036</v>
+        <v>0.09067465710075873</v>
       </c>
       <c r="T11">
-        <v>0.09445117870174036</v>
+        <v>0.09067465710075875</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.97776589403837</v>
+        <v>6.048190666666667</v>
       </c>
       <c r="H12">
-        <v>5.97776589403837</v>
+        <v>18.144572</v>
       </c>
       <c r="I12">
-        <v>0.2249242124397828</v>
+        <v>0.2083546549267541</v>
       </c>
       <c r="J12">
-        <v>0.2249242124397828</v>
+        <v>0.2083546549267542</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.81571287386579</v>
+        <v>1.984489</v>
       </c>
       <c r="N12">
-        <v>1.81571287386579</v>
+        <v>5.953467</v>
       </c>
       <c r="O12">
-        <v>0.2224449249869647</v>
+        <v>0.20885295887891</v>
       </c>
       <c r="P12">
-        <v>0.2224449249869647</v>
+        <v>0.20885295887891</v>
       </c>
       <c r="Q12">
-        <v>10.85390649076131</v>
+        <v>12.00256784790267</v>
       </c>
       <c r="R12">
-        <v>10.85390649076131</v>
+        <v>108.023110631124</v>
       </c>
       <c r="S12">
-        <v>0.0500332495639196</v>
+        <v>0.04351548617764686</v>
       </c>
       <c r="T12">
-        <v>0.0500332495639196</v>
+        <v>0.04351548617764688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.97776589403837</v>
+        <v>6.048190666666667</v>
       </c>
       <c r="H13">
-        <v>5.97776589403837</v>
+        <v>18.144572</v>
       </c>
       <c r="I13">
-        <v>0.2249242124397828</v>
+        <v>0.2083546549267541</v>
       </c>
       <c r="J13">
-        <v>0.2249242124397828</v>
+        <v>0.2083546549267542</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.624668937938942</v>
+        <v>0.7372710000000001</v>
       </c>
       <c r="N13">
-        <v>0.624668937938942</v>
+        <v>2.211813</v>
       </c>
       <c r="O13">
-        <v>0.07652885929352383</v>
+        <v>0.07759238264642075</v>
       </c>
       <c r="P13">
-        <v>0.07652885929352383</v>
+        <v>0.07759238264642074</v>
       </c>
       <c r="Q13">
-        <v>3.734124672276578</v>
+        <v>4.459155581004</v>
       </c>
       <c r="R13">
-        <v>3.734124672276578</v>
+        <v>40.132400229036</v>
       </c>
       <c r="S13">
-        <v>0.0172131934055108</v>
+        <v>0.01616673411123966</v>
       </c>
       <c r="T13">
-        <v>0.0172131934055108</v>
+        <v>0.01616673411123967</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.61236722382808</v>
+        <v>3.637153666666666</v>
       </c>
       <c r="H14">
-        <v>3.61236722382808</v>
+        <v>10.911461</v>
       </c>
       <c r="I14">
-        <v>0.1359218255223295</v>
+        <v>0.125296628181791</v>
       </c>
       <c r="J14">
-        <v>0.1359218255223295</v>
+        <v>0.125296628181791</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.287321214247122</v>
+        <v>0.332722</v>
       </c>
       <c r="N14">
-        <v>0.287321214247122</v>
+        <v>0.998166</v>
       </c>
       <c r="O14">
-        <v>0.0352000290741392</v>
+        <v>0.03501655800768293</v>
       </c>
       <c r="P14">
-        <v>0.0352000290741392</v>
+        <v>0.03501655800768293</v>
       </c>
       <c r="Q14">
-        <v>1.037909737056789</v>
+        <v>1.210161042280667</v>
       </c>
       <c r="R14">
-        <v>1.037909737056789</v>
+        <v>10.891449380526</v>
       </c>
       <c r="S14">
-        <v>0.004784452210196076</v>
+        <v>0.004387456648894764</v>
       </c>
       <c r="T14">
-        <v>0.004784452210196076</v>
+        <v>0.004387456648894764</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.61236722382808</v>
+        <v>3.637153666666666</v>
       </c>
       <c r="H15">
-        <v>3.61236722382808</v>
+        <v>10.911461</v>
       </c>
       <c r="I15">
-        <v>0.1359218255223295</v>
+        <v>0.125296628181791</v>
       </c>
       <c r="J15">
-        <v>0.1359218255223295</v>
+        <v>0.125296628181791</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.546550261479804</v>
+        <v>0.7116543333333333</v>
       </c>
       <c r="N15">
-        <v>0.546550261479804</v>
+        <v>2.134963</v>
       </c>
       <c r="O15">
-        <v>0.06695845673971215</v>
+        <v>0.07489641576026108</v>
       </c>
       <c r="P15">
-        <v>0.06695845673971215</v>
+        <v>0.07489641576026108</v>
       </c>
       <c r="Q15">
-        <v>1.974340250744311</v>
+        <v>2.588396167882555</v>
       </c>
       <c r="R15">
-        <v>1.974340250744311</v>
+        <v>23.295565510943</v>
       </c>
       <c r="S15">
-        <v>0.009101115674219605</v>
+        <v>0.009384268357662264</v>
       </c>
       <c r="T15">
-        <v>0.009101115674219605</v>
+        <v>0.009384268357662264</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.61236722382808</v>
+        <v>3.637153666666666</v>
       </c>
       <c r="H16">
-        <v>3.61236722382808</v>
+        <v>10.911461</v>
       </c>
       <c r="I16">
-        <v>0.1359218255223295</v>
+        <v>0.125296628181791</v>
       </c>
       <c r="J16">
-        <v>0.1359218255223295</v>
+        <v>0.125296628181791</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.46062939778818</v>
+        <v>1.600566</v>
       </c>
       <c r="N16">
-        <v>1.46062939778818</v>
+        <v>4.801698</v>
       </c>
       <c r="O16">
-        <v>0.1789432687851081</v>
+        <v>0.1684478699458558</v>
       </c>
       <c r="P16">
-        <v>0.1789432687851081</v>
+        <v>0.1684478699458558</v>
       </c>
       <c r="Q16">
-        <v>5.276329762729768</v>
+        <v>5.821504495641999</v>
       </c>
       <c r="R16">
-        <v>5.276329762729768</v>
+        <v>52.393540460778</v>
       </c>
       <c r="S16">
-        <v>0.02432229575820477</v>
+        <v>0.02110595012862058</v>
       </c>
       <c r="T16">
-        <v>0.02432229575820477</v>
+        <v>0.02110595012862058</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.61236722382808</v>
+        <v>3.637153666666666</v>
       </c>
       <c r="H17">
-        <v>3.61236722382808</v>
+        <v>10.911461</v>
       </c>
       <c r="I17">
-        <v>0.1359218255223295</v>
+        <v>0.125296628181791</v>
       </c>
       <c r="J17">
-        <v>0.1359218255223295</v>
+        <v>0.125296628181791</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.4276450683351</v>
+        <v>4.135145333333333</v>
       </c>
       <c r="N17">
-        <v>3.4276450683351</v>
+        <v>12.405436</v>
       </c>
       <c r="O17">
-        <v>0.419924461120552</v>
+        <v>0.4351938147608695</v>
       </c>
       <c r="P17">
-        <v>0.419924461120552</v>
+        <v>0.4351938147608695</v>
       </c>
       <c r="Q17">
-        <v>12.38191269976967</v>
+        <v>15.04015901133289</v>
       </c>
       <c r="R17">
-        <v>12.38191269976967</v>
+        <v>135.361431101996</v>
       </c>
       <c r="S17">
-        <v>0.05707689933698592</v>
+        <v>0.05452831759510789</v>
       </c>
       <c r="T17">
-        <v>0.05707689933698592</v>
+        <v>0.05452831759510789</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.61236722382808</v>
+        <v>3.637153666666666</v>
       </c>
       <c r="H18">
-        <v>3.61236722382808</v>
+        <v>10.911461</v>
       </c>
       <c r="I18">
-        <v>0.1359218255223295</v>
+        <v>0.125296628181791</v>
       </c>
       <c r="J18">
-        <v>0.1359218255223295</v>
+        <v>0.125296628181791</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.81571287386579</v>
+        <v>1.984489</v>
       </c>
       <c r="N18">
-        <v>1.81571287386579</v>
+        <v>5.953467</v>
       </c>
       <c r="O18">
-        <v>0.2224449249869647</v>
+        <v>0.20885295887891</v>
       </c>
       <c r="P18">
-        <v>0.2224449249869647</v>
+        <v>0.20885295887891</v>
       </c>
       <c r="Q18">
-        <v>6.559021673435469</v>
+        <v>7.217891442809666</v>
       </c>
       <c r="R18">
-        <v>6.559021673435469</v>
+        <v>64.96102298528699</v>
       </c>
       <c r="S18">
-        <v>0.03023512028240589</v>
+        <v>0.02616857153331767</v>
       </c>
       <c r="T18">
-        <v>0.03023512028240589</v>
+        <v>0.02616857153331767</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.61236722382808</v>
+        <v>3.637153666666666</v>
       </c>
       <c r="H19">
-        <v>3.61236722382808</v>
+        <v>10.911461</v>
       </c>
       <c r="I19">
-        <v>0.1359218255223295</v>
+        <v>0.125296628181791</v>
       </c>
       <c r="J19">
-        <v>0.1359218255223295</v>
+        <v>0.125296628181791</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.624668937938942</v>
+        <v>0.7372710000000001</v>
       </c>
       <c r="N19">
-        <v>0.624668937938942</v>
+        <v>2.211813</v>
       </c>
       <c r="O19">
-        <v>0.07652885929352383</v>
+        <v>0.07759238264642075</v>
       </c>
       <c r="P19">
-        <v>0.07652885929352383</v>
+        <v>0.07759238264642074</v>
       </c>
       <c r="Q19">
-        <v>2.256533597154131</v>
+        <v>2.681567920977</v>
       </c>
       <c r="R19">
-        <v>2.256533597154131</v>
+        <v>24.134111288793</v>
       </c>
       <c r="S19">
-        <v>0.01040194226031725</v>
+        <v>0.009722063918187833</v>
       </c>
       <c r="T19">
-        <v>0.01040194226031725</v>
+        <v>0.009722063918187831</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.66004340263534</v>
+        <v>3.966088666666666</v>
       </c>
       <c r="H20">
-        <v>3.66004340263534</v>
+        <v>11.898266</v>
       </c>
       <c r="I20">
-        <v>0.1377157276523972</v>
+        <v>0.1366281390741391</v>
       </c>
       <c r="J20">
-        <v>0.1377157276523972</v>
+        <v>0.1366281390741392</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.287321214247122</v>
+        <v>0.332722</v>
       </c>
       <c r="N20">
-        <v>0.287321214247122</v>
+        <v>0.998166</v>
       </c>
       <c r="O20">
-        <v>0.0352000290741392</v>
+        <v>0.03501655800768293</v>
       </c>
       <c r="P20">
-        <v>0.0352000290741392</v>
+        <v>0.03501655800768293</v>
       </c>
       <c r="Q20">
-        <v>1.051608114642354</v>
+        <v>1.319604953350667</v>
       </c>
       <c r="R20">
-        <v>1.051608114642354</v>
+        <v>11.876444580156</v>
       </c>
       <c r="S20">
-        <v>0.004847597617330618</v>
+        <v>0.004784247157371363</v>
       </c>
       <c r="T20">
-        <v>0.004847597617330618</v>
+        <v>0.004784247157371364</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.66004340263534</v>
+        <v>3.966088666666666</v>
       </c>
       <c r="H21">
-        <v>3.66004340263534</v>
+        <v>11.898266</v>
       </c>
       <c r="I21">
-        <v>0.1377157276523972</v>
+        <v>0.1366281390741391</v>
       </c>
       <c r="J21">
-        <v>0.1377157276523972</v>
+        <v>0.1366281390741392</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.546550261479804</v>
+        <v>0.7116543333333333</v>
       </c>
       <c r="N21">
-        <v>0.546550261479804</v>
+        <v>2.134963</v>
       </c>
       <c r="O21">
-        <v>0.06695845673971215</v>
+        <v>0.07489641576026108</v>
       </c>
       <c r="P21">
-        <v>0.06695845673971215</v>
+        <v>0.07489641576026108</v>
       </c>
       <c r="Q21">
-        <v>2.000397678737777</v>
+        <v>2.822484186017555</v>
       </c>
       <c r="R21">
-        <v>2.000397678737777</v>
+        <v>25.402357674158</v>
       </c>
       <c r="S21">
-        <v>0.009221232592391019</v>
+        <v>0.0102329579086475</v>
       </c>
       <c r="T21">
-        <v>0.009221232592391019</v>
+        <v>0.0102329579086475</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.66004340263534</v>
+        <v>3.966088666666666</v>
       </c>
       <c r="H22">
-        <v>3.66004340263534</v>
+        <v>11.898266</v>
       </c>
       <c r="I22">
-        <v>0.1377157276523972</v>
+        <v>0.1366281390741391</v>
       </c>
       <c r="J22">
-        <v>0.1377157276523972</v>
+        <v>0.1366281390741392</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.46062939778818</v>
+        <v>1.600566</v>
       </c>
       <c r="N22">
-        <v>1.46062939778818</v>
+        <v>4.801698</v>
       </c>
       <c r="O22">
-        <v>0.1789432687851081</v>
+        <v>0.1684478699458558</v>
       </c>
       <c r="P22">
-        <v>0.1789432687851081</v>
+        <v>0.1684478699458558</v>
       </c>
       <c r="Q22">
-        <v>5.345966991069858</v>
+        <v>6.347986672852</v>
       </c>
       <c r="R22">
-        <v>5.345966991069858</v>
+        <v>57.131880055668</v>
       </c>
       <c r="S22">
-        <v>0.02464330246923965</v>
+        <v>0.02301471900170489</v>
       </c>
       <c r="T22">
-        <v>0.02464330246923965</v>
+        <v>0.0230147190017049</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.66004340263534</v>
+        <v>3.966088666666666</v>
       </c>
       <c r="H23">
-        <v>3.66004340263534</v>
+        <v>11.898266</v>
       </c>
       <c r="I23">
-        <v>0.1377157276523972</v>
+        <v>0.1366281390741391</v>
       </c>
       <c r="J23">
-        <v>0.1377157276523972</v>
+        <v>0.1366281390741392</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.4276450683351</v>
+        <v>4.135145333333333</v>
       </c>
       <c r="N23">
-        <v>3.4276450683351</v>
+        <v>12.405436</v>
       </c>
       <c r="O23">
-        <v>0.419924461120552</v>
+        <v>0.4351938147608695</v>
       </c>
       <c r="P23">
-        <v>0.419924461120552</v>
+        <v>0.4351938147608695</v>
       </c>
       <c r="Q23">
-        <v>12.54532971893544</v>
+        <v>16.40035304155289</v>
       </c>
       <c r="R23">
-        <v>12.54532971893544</v>
+        <v>147.603177373976</v>
       </c>
       <c r="S23">
-        <v>0.05783020272225759</v>
+        <v>0.05945972104735323</v>
       </c>
       <c r="T23">
-        <v>0.05783020272225759</v>
+        <v>0.05945972104735324</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.66004340263534</v>
+        <v>3.966088666666666</v>
       </c>
       <c r="H24">
-        <v>3.66004340263534</v>
+        <v>11.898266</v>
       </c>
       <c r="I24">
-        <v>0.1377157276523972</v>
+        <v>0.1366281390741391</v>
       </c>
       <c r="J24">
-        <v>0.1377157276523972</v>
+        <v>0.1366281390741392</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.81571287386579</v>
+        <v>1.984489</v>
       </c>
       <c r="N24">
-        <v>1.81571287386579</v>
+        <v>5.953467</v>
       </c>
       <c r="O24">
-        <v>0.2224449249869647</v>
+        <v>0.20885295887891</v>
       </c>
       <c r="P24">
-        <v>0.2224449249869647</v>
+        <v>0.20885295887891</v>
       </c>
       <c r="Q24">
-        <v>6.645587925072538</v>
+        <v>7.870659332024666</v>
       </c>
       <c r="R24">
-        <v>6.645587925072538</v>
+        <v>70.835933988222</v>
       </c>
       <c r="S24">
-        <v>0.03063416470716275</v>
+        <v>0.02853519111175318</v>
       </c>
       <c r="T24">
-        <v>0.03063416470716275</v>
+        <v>0.02853519111175318</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.66004340263534</v>
+        <v>3.966088666666666</v>
       </c>
       <c r="H25">
-        <v>3.66004340263534</v>
+        <v>11.898266</v>
       </c>
       <c r="I25">
-        <v>0.1377157276523972</v>
+        <v>0.1366281390741391</v>
       </c>
       <c r="J25">
-        <v>0.1377157276523972</v>
+        <v>0.1366281390741392</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.624668937938942</v>
+        <v>0.7372710000000001</v>
       </c>
       <c r="N25">
-        <v>0.624668937938942</v>
+        <v>2.211813</v>
       </c>
       <c r="O25">
-        <v>0.07652885929352383</v>
+        <v>0.07759238264642075</v>
       </c>
       <c r="P25">
-        <v>0.07652885929352383</v>
+        <v>0.07759238264642074</v>
       </c>
       <c r="Q25">
-        <v>2.286315425134649</v>
+        <v>2.924082157362</v>
       </c>
       <c r="R25">
-        <v>2.286315425134649</v>
+        <v>26.316739416258</v>
       </c>
       <c r="S25">
-        <v>0.01053922754401555</v>
+        <v>0.010601302847309</v>
       </c>
       <c r="T25">
-        <v>0.01053922754401555</v>
+        <v>0.010601302847309</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.15616482564883</v>
+        <v>5.493902333333334</v>
       </c>
       <c r="H26">
-        <v>5.15616482564883</v>
+        <v>16.481707</v>
       </c>
       <c r="I26">
-        <v>0.1940099918893426</v>
+        <v>0.1892599271335179</v>
       </c>
       <c r="J26">
-        <v>0.1940099918893426</v>
+        <v>0.1892599271335179</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.287321214247122</v>
+        <v>0.332722</v>
       </c>
       <c r="N26">
-        <v>0.287321214247122</v>
+        <v>0.998166</v>
       </c>
       <c r="O26">
-        <v>0.0352000290741392</v>
+        <v>0.03501655800768293</v>
       </c>
       <c r="P26">
-        <v>0.0352000290741392</v>
+        <v>0.03501655800768293</v>
       </c>
       <c r="Q26">
-        <v>1.481475538563722</v>
+        <v>1.827942172151334</v>
       </c>
       <c r="R26">
-        <v>1.481475538563722</v>
+        <v>16.451479549362</v>
       </c>
       <c r="S26">
-        <v>0.006829157355178371</v>
+        <v>0.006627231217000672</v>
       </c>
       <c r="T26">
-        <v>0.006829157355178371</v>
+        <v>0.006627231217000673</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.15616482564883</v>
+        <v>5.493902333333334</v>
       </c>
       <c r="H27">
-        <v>5.15616482564883</v>
+        <v>16.481707</v>
       </c>
       <c r="I27">
-        <v>0.1940099918893426</v>
+        <v>0.1892599271335179</v>
       </c>
       <c r="J27">
-        <v>0.1940099918893426</v>
+        <v>0.1892599271335179</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.546550261479804</v>
+        <v>0.7116543333333333</v>
       </c>
       <c r="N27">
-        <v>0.546550261479804</v>
+        <v>2.134963</v>
       </c>
       <c r="O27">
-        <v>0.06695845673971215</v>
+        <v>0.07489641576026108</v>
       </c>
       <c r="P27">
-        <v>0.06695845673971215</v>
+        <v>0.07489641576026108</v>
       </c>
       <c r="Q27">
-        <v>2.818103233691336</v>
+        <v>3.909759402426778</v>
       </c>
       <c r="R27">
-        <v>2.818103233691336</v>
+        <v>35.187834621841</v>
       </c>
       <c r="S27">
-        <v>0.01299060964899445</v>
+        <v>0.01417489018934867</v>
       </c>
       <c r="T27">
-        <v>0.01299060964899445</v>
+        <v>0.01417489018934867</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.15616482564883</v>
+        <v>5.493902333333334</v>
       </c>
       <c r="H28">
-        <v>5.15616482564883</v>
+        <v>16.481707</v>
       </c>
       <c r="I28">
-        <v>0.1940099918893426</v>
+        <v>0.1892599271335179</v>
       </c>
       <c r="J28">
-        <v>0.1940099918893426</v>
+        <v>0.1892599271335179</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.46062939778818</v>
+        <v>1.600566</v>
       </c>
       <c r="N28">
-        <v>1.46062939778818</v>
+        <v>4.801698</v>
       </c>
       <c r="O28">
-        <v>0.1789432687851081</v>
+        <v>0.1684478699458558</v>
       </c>
       <c r="P28">
-        <v>0.1789432687851081</v>
+        <v>0.1684478699458558</v>
       </c>
       <c r="Q28">
-        <v>7.531245924184046</v>
+        <v>8.793353282053999</v>
       </c>
       <c r="R28">
-        <v>7.531245924184046</v>
+        <v>79.140179538486</v>
       </c>
       <c r="S28">
-        <v>0.03471678212565127</v>
+        <v>0.03188043159174896</v>
       </c>
       <c r="T28">
-        <v>0.03471678212565127</v>
+        <v>0.03188043159174897</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.15616482564883</v>
+        <v>5.493902333333334</v>
       </c>
       <c r="H29">
-        <v>5.15616482564883</v>
+        <v>16.481707</v>
       </c>
       <c r="I29">
-        <v>0.1940099918893426</v>
+        <v>0.1892599271335179</v>
       </c>
       <c r="J29">
-        <v>0.1940099918893426</v>
+        <v>0.1892599271335179</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.4276450683351</v>
+        <v>4.135145333333333</v>
       </c>
       <c r="N29">
-        <v>3.4276450683351</v>
+        <v>12.405436</v>
       </c>
       <c r="O29">
-        <v>0.419924461120552</v>
+        <v>0.4351938147608695</v>
       </c>
       <c r="P29">
-        <v>0.419924461120552</v>
+        <v>0.4351938147608695</v>
       </c>
       <c r="Q29">
-        <v>17.67350293615812</v>
+        <v>22.71808459547244</v>
       </c>
       <c r="R29">
-        <v>17.67350293615812</v>
+        <v>204.462761359252</v>
       </c>
       <c r="S29">
-        <v>0.08146954129613486</v>
+        <v>0.08236474967059983</v>
       </c>
       <c r="T29">
-        <v>0.08146954129613486</v>
+        <v>0.08236474967059984</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.15616482564883</v>
+        <v>5.493902333333334</v>
       </c>
       <c r="H30">
-        <v>5.15616482564883</v>
+        <v>16.481707</v>
       </c>
       <c r="I30">
-        <v>0.1940099918893426</v>
+        <v>0.1892599271335179</v>
       </c>
       <c r="J30">
-        <v>0.1940099918893426</v>
+        <v>0.1892599271335179</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.81571287386579</v>
+        <v>1.984489</v>
       </c>
       <c r="N30">
-        <v>1.81571287386579</v>
+        <v>5.953467</v>
       </c>
       <c r="O30">
-        <v>0.2224449249869647</v>
+        <v>0.20885295887891</v>
       </c>
       <c r="P30">
-        <v>0.2224449249869647</v>
+        <v>0.20885295887891</v>
       </c>
       <c r="Q30">
-        <v>9.362114853704536</v>
+        <v>10.90258874757433</v>
       </c>
       <c r="R30">
-        <v>9.362114853704536</v>
+        <v>98.123298728169</v>
       </c>
       <c r="S30">
-        <v>0.04315653809254644</v>
+        <v>0.0395274957790421</v>
       </c>
       <c r="T30">
-        <v>0.04315653809254644</v>
+        <v>0.03952749577904211</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.15616482564883</v>
+        <v>5.493902333333334</v>
       </c>
       <c r="H31">
-        <v>5.15616482564883</v>
+        <v>16.481707</v>
       </c>
       <c r="I31">
-        <v>0.1940099918893426</v>
+        <v>0.1892599271335179</v>
       </c>
       <c r="J31">
-        <v>0.1940099918893426</v>
+        <v>0.1892599271335179</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.624668937938942</v>
+        <v>0.7372710000000001</v>
       </c>
       <c r="N31">
-        <v>0.624668937938942</v>
+        <v>2.211813</v>
       </c>
       <c r="O31">
-        <v>0.07652885929352383</v>
+        <v>0.07759238264642075</v>
       </c>
       <c r="P31">
-        <v>0.07652885929352383</v>
+        <v>0.07759238264642074</v>
       </c>
       <c r="Q31">
-        <v>3.220896005476184</v>
+        <v>4.050494867199001</v>
       </c>
       <c r="R31">
-        <v>3.220896005476184</v>
+        <v>36.454453804791</v>
       </c>
       <c r="S31">
-        <v>0.0148473633708372</v>
+        <v>0.01468512868577763</v>
       </c>
       <c r="T31">
-        <v>0.0148473633708372</v>
+        <v>0.01468512868577763</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.20709448485716</v>
+        <v>5.741341666666666</v>
       </c>
       <c r="H32">
-        <v>5.20709448485716</v>
+        <v>17.224025</v>
       </c>
       <c r="I32">
-        <v>0.1959263120815878</v>
+        <v>0.1977839866007744</v>
       </c>
       <c r="J32">
-        <v>0.1959263120815878</v>
+        <v>0.1977839866007744</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.287321214247122</v>
+        <v>0.332722</v>
       </c>
       <c r="N32">
-        <v>0.287321214247122</v>
+        <v>0.998166</v>
       </c>
       <c r="O32">
-        <v>0.0352000290741392</v>
+        <v>0.03501655800768293</v>
       </c>
       <c r="P32">
-        <v>0.0352000290741392</v>
+        <v>0.03501655800768293</v>
       </c>
       <c r="Q32">
-        <v>1.496108710088651</v>
+        <v>1.910270682016667</v>
       </c>
       <c r="R32">
-        <v>1.496108710088651</v>
+        <v>17.19243613815</v>
       </c>
       <c r="S32">
-        <v>0.00689661188166076</v>
+        <v>0.006925714439796799</v>
       </c>
       <c r="T32">
-        <v>0.00689661188166076</v>
+        <v>0.0069257144397968</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.20709448485716</v>
+        <v>5.741341666666666</v>
       </c>
       <c r="H33">
-        <v>5.20709448485716</v>
+        <v>17.224025</v>
       </c>
       <c r="I33">
-        <v>0.1959263120815878</v>
+        <v>0.1977839866007744</v>
       </c>
       <c r="J33">
-        <v>0.1959263120815878</v>
+        <v>0.1977839866007744</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.546550261479804</v>
+        <v>0.7116543333333333</v>
       </c>
       <c r="N33">
-        <v>0.546550261479804</v>
+        <v>2.134963</v>
       </c>
       <c r="O33">
-        <v>0.06695845673971215</v>
+        <v>0.07489641576026108</v>
       </c>
       <c r="P33">
-        <v>0.06695845673971215</v>
+        <v>0.07489641576026108</v>
       </c>
       <c r="Q33">
-        <v>2.845938852248727</v>
+        <v>4.085850676230555</v>
       </c>
       <c r="R33">
-        <v>2.845938852248727</v>
+        <v>36.772656086075</v>
       </c>
       <c r="S33">
-        <v>0.01311892349168634</v>
+        <v>0.01481331169117351</v>
       </c>
       <c r="T33">
-        <v>0.01311892349168634</v>
+        <v>0.01481331169117351</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.20709448485716</v>
+        <v>5.741341666666666</v>
       </c>
       <c r="H34">
-        <v>5.20709448485716</v>
+        <v>17.224025</v>
       </c>
       <c r="I34">
-        <v>0.1959263120815878</v>
+        <v>0.1977839866007744</v>
       </c>
       <c r="J34">
-        <v>0.1959263120815878</v>
+        <v>0.1977839866007744</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.46062939778818</v>
+        <v>1.600566</v>
       </c>
       <c r="N34">
-        <v>1.46062939778818</v>
+        <v>4.801698</v>
       </c>
       <c r="O34">
-        <v>0.1789432687851081</v>
+        <v>0.1684478699458558</v>
       </c>
       <c r="P34">
-        <v>0.1789432687851081</v>
+        <v>0.1684478699458558</v>
       </c>
       <c r="Q34">
-        <v>7.605635281643067</v>
+        <v>9.189396266049998</v>
       </c>
       <c r="R34">
-        <v>7.605635281643067</v>
+        <v>82.70456639444998</v>
       </c>
       <c r="S34">
-        <v>0.03505969472489052</v>
+        <v>0.03331629125230013</v>
       </c>
       <c r="T34">
-        <v>0.03505969472489052</v>
+        <v>0.03331629125230014</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.20709448485716</v>
+        <v>5.741341666666666</v>
       </c>
       <c r="H35">
-        <v>5.20709448485716</v>
+        <v>17.224025</v>
       </c>
       <c r="I35">
-        <v>0.1959263120815878</v>
+        <v>0.1977839866007744</v>
       </c>
       <c r="J35">
-        <v>0.1959263120815878</v>
+        <v>0.1977839866007744</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>3.4276450683351</v>
+        <v>4.135145333333333</v>
       </c>
       <c r="N35">
-        <v>3.4276450683351</v>
+        <v>12.405436</v>
       </c>
       <c r="O35">
-        <v>0.419924461120552</v>
+        <v>0.4351938147608695</v>
       </c>
       <c r="P35">
-        <v>0.419924461120552</v>
+        <v>0.4351938147608695</v>
       </c>
       <c r="Q35">
-        <v>17.84807173137554</v>
+        <v>23.74128219998888</v>
       </c>
       <c r="R35">
-        <v>17.84807173137554</v>
+        <v>213.6715397999</v>
       </c>
       <c r="S35">
-        <v>0.08227425102019785</v>
+        <v>0.08607436762740371</v>
       </c>
       <c r="T35">
-        <v>0.08227425102019785</v>
+        <v>0.08607436762740373</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.20709448485716</v>
+        <v>5.741341666666666</v>
       </c>
       <c r="H36">
-        <v>5.20709448485716</v>
+        <v>17.224025</v>
       </c>
       <c r="I36">
-        <v>0.1959263120815878</v>
+        <v>0.1977839866007744</v>
       </c>
       <c r="J36">
-        <v>0.1959263120815878</v>
+        <v>0.1977839866007744</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.81571287386579</v>
+        <v>1.984489</v>
       </c>
       <c r="N36">
-        <v>1.81571287386579</v>
+        <v>5.953467</v>
       </c>
       <c r="O36">
-        <v>0.2224449249869647</v>
+        <v>0.20885295887891</v>
       </c>
       <c r="P36">
-        <v>0.2224449249869647</v>
+        <v>0.20885295887891</v>
       </c>
       <c r="Q36">
-        <v>9.4545884915907</v>
+        <v>11.39362938274166</v>
       </c>
       <c r="R36">
-        <v>9.4545884915907</v>
+        <v>102.542664444675</v>
       </c>
       <c r="S36">
-        <v>0.04358281379396142</v>
+        <v>0.04130777082043842</v>
       </c>
       <c r="T36">
-        <v>0.04358281379396142</v>
+        <v>0.04130777082043843</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.20709448485716</v>
+        <v>5.741341666666666</v>
       </c>
       <c r="H37">
-        <v>5.20709448485716</v>
+        <v>17.224025</v>
       </c>
       <c r="I37">
-        <v>0.1959263120815878</v>
+        <v>0.1977839866007744</v>
       </c>
       <c r="J37">
-        <v>0.1959263120815878</v>
+        <v>0.1977839866007744</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.624668937938942</v>
+        <v>0.7372710000000001</v>
       </c>
       <c r="N37">
-        <v>0.624668937938942</v>
+        <v>2.211813</v>
       </c>
       <c r="O37">
-        <v>0.07652885929352383</v>
+        <v>0.07759238264642075</v>
       </c>
       <c r="P37">
-        <v>0.07652885929352383</v>
+        <v>0.07759238264642074</v>
       </c>
       <c r="Q37">
-        <v>3.252710181603444</v>
+        <v>4.232924711925</v>
       </c>
       <c r="R37">
-        <v>3.252710181603444</v>
+        <v>38.096322407325</v>
       </c>
       <c r="S37">
-        <v>0.01499401716919087</v>
+        <v>0.01534653076966184</v>
       </c>
       <c r="T37">
-        <v>0.01499401716919087</v>
+        <v>0.01534653076966184</v>
       </c>
     </row>
   </sheetData>
